--- a/PaperNeural/Results/ResultsMar2017-PCA.xlsx
+++ b/PaperNeural/Results/ResultsMar2017-PCA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliveirafhm/Dropbox/Compartilhada Alessando e Fabio/Clinic 09.03.2016/Programs/oliveirafhm/PaperNeural/Results/"/>
     </mc:Choice>
@@ -667,7 +667,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1517,19 +1518,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="9.33203125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9.5" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="9.83203125" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="9.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.1640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.1640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.1640625" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="9.5" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="9.83203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
@@ -7009,11 +7010,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -7109,41 +7110,41 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="40">
-        <v>1</v>
-      </c>
-      <c r="D6" s="40">
-        <v>0</v>
-      </c>
-      <c r="E6" s="40">
-        <v>0</v>
+      <c r="C6" s="40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F6" s="3">
         <f>100*C6/SUM(C6:E6)</f>
         <v>100</v>
       </c>
-      <c r="G6" s="63">
-        <v>15.789473684210526</v>
+      <c r="G6" s="63" t="n">
+        <v>42.10526315789473</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="40">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K6" s="40">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="L6" s="40">
-        <v>0.1111111111111111</v>
+      <c r="J6" s="40" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="K6" s="40" t="n">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="L6" s="40" t="n">
+        <v>0.044444444444444446</v>
       </c>
       <c r="M6" s="3">
         <f>100*J6/(SUM(J6:L6))</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="N6" s="63">
-        <v>29.239766081871345</v>
+      <c r="N6" s="63" t="n">
+        <v>20.46783625730994</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -7151,13 +7152,13 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="40">
-        <v>0.125</v>
-      </c>
-      <c r="D7" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="E7" s="40">
+      <c r="C7" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="40" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E7" s="40" t="n">
         <v>0.125</v>
       </c>
       <c r="F7" s="3">
@@ -7169,14 +7170,14 @@
       <c r="I7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="40">
-        <v>0.125</v>
-      </c>
-      <c r="K7" s="40">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="L7" s="40">
-        <v>9.7222222222222224E-2</v>
+      <c r="J7" s="40" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="K7" s="40" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L7" s="40" t="n">
+        <v>0.08333333333333333</v>
       </c>
       <c r="M7" s="3">
         <f>100*K7/(SUM(J7:L7))</f>
@@ -7189,14 +7190,14 @@
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="40">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D8" s="40">
-        <v>0</v>
-      </c>
-      <c r="E8" s="40">
-        <v>0.83333333333333337</v>
+      <c r="C8" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D8" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E8" s="40" t="n">
+        <v>0.3333333333333333</v>
       </c>
       <c r="F8" s="3">
         <f>100*E8/SUM(C8:E8)</f>
@@ -7207,14 +7208,14 @@
       <c r="I8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="40">
-        <v>0.20370370370370369</v>
-      </c>
-      <c r="K8" s="40">
-        <v>0.14814814814814814</v>
-      </c>
-      <c r="L8" s="40">
-        <v>0.64814814814814814</v>
+      <c r="J8" s="40" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K8" s="40" t="n">
+        <v>0.12962962962962962</v>
+      </c>
+      <c r="L8" s="40" t="n">
+        <v>0.7592592592592593</v>
       </c>
       <c r="M8" s="3">
         <f>100*L8/(SUM(J8:L8))</f>
@@ -7289,40 +7290,40 @@
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="40" t="n">
         <v>0.6</v>
       </c>
-      <c r="D12" s="40">
-        <v>0.4</v>
-      </c>
-      <c r="E12" s="40">
-        <v>0</v>
+      <c r="D12" s="40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="40" t="n">
+        <v>0.2</v>
       </c>
       <c r="F12" s="3">
         <f>100*C12/SUM(C12:E12)</f>
         <v>60</v>
       </c>
-      <c r="G12" s="63">
-        <v>42.105263157894733</v>
+      <c r="G12" s="63" t="n">
+        <v>26.31578947368421</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="40">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K12" s="40">
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="L12" s="40">
-        <v>6.6666666666666666E-2</v>
+      <c r="J12" s="40" t="n">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="K12" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L12" s="40" t="n">
+        <v>0.044444444444444446</v>
       </c>
       <c r="M12" s="3">
         <f>100*J12/(SUM(J12:L12))</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="N12" s="63">
-        <v>28.654970760233915</v>
+      <c r="N12" s="63" t="n">
+        <v>30.409356725146196</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -7330,14 +7331,14 @@
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="D13" s="40">
-        <v>0.625</v>
-      </c>
-      <c r="E13" s="40">
-        <v>0.125</v>
+      <c r="C13" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F13" s="3">
         <f>100*D13/SUM(C13:E13)</f>
@@ -7347,14 +7348,14 @@
       <c r="I13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="40">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="K13" s="40">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="L13" s="40">
-        <v>4.1666666666666664E-2</v>
+      <c r="J13" s="40" t="n">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="K13" s="40" t="n">
+        <v>0.7638888888888888</v>
+      </c>
+      <c r="L13" s="40" t="n">
+        <v>0.05555555555555555</v>
       </c>
       <c r="M13" s="3">
         <f>100*K13/(SUM(J13:L13))</f>
@@ -7367,13 +7368,13 @@
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="40">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D14" s="40">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E14" s="40">
+      <c r="C14" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="40" t="n">
         <v>0.5</v>
       </c>
       <c r="F14" s="3">
@@ -7384,14 +7385,14 @@
       <c r="I14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="40">
-        <v>9.2592592592592587E-2</v>
-      </c>
-      <c r="K14" s="40">
-        <v>0.18518518518518517</v>
-      </c>
-      <c r="L14" s="40">
-        <v>0.72222222222222221</v>
+      <c r="J14" s="40" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K14" s="40" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="L14" s="40" t="n">
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14" s="3">
         <f>100*L14/(SUM(J14:L14))</f>
@@ -7463,40 +7464,40 @@
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="40">
-        <v>0.6</v>
-      </c>
-      <c r="D18" s="40">
-        <v>0.4</v>
-      </c>
-      <c r="E18" s="40">
-        <v>0</v>
+      <c r="C18" s="40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D18" s="40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F18" s="3">
         <f>100*C18/SUM(C18:E18)</f>
         <v>60</v>
       </c>
-      <c r="G18" s="63">
-        <v>47.368421052631575</v>
+      <c r="G18" s="63" t="n">
+        <v>42.10526315789473</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="40">
-        <v>0.48888888888888887</v>
-      </c>
-      <c r="K18" s="40">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L18" s="40">
-        <v>0.17777777777777778</v>
+      <c r="J18" s="40" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="K18" s="40" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="L18" s="40" t="n">
+        <v>0.08888888888888889</v>
       </c>
       <c r="M18" s="3">
         <f>100*J18/(SUM(J18:L18))</f>
         <v>48.888888888888886</v>
       </c>
-      <c r="N18" s="63">
-        <v>28.654970760233915</v>
+      <c r="N18" s="63" t="n">
+        <v>25.146198830409354</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -7504,14 +7505,14 @@
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="40" t="n">
         <v>0.375</v>
       </c>
-      <c r="D19" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E19" s="40">
-        <v>0.375</v>
+      <c r="D19" s="40" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E19" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F19" s="3">
         <f>100*D19/SUM(C19:E19)</f>
@@ -7521,14 +7522,14 @@
       <c r="I19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="40">
-        <v>9.7222222222222224E-2</v>
-      </c>
-      <c r="K19" s="40">
-        <v>0.81944444444444442</v>
-      </c>
-      <c r="L19" s="40">
-        <v>8.3333333333333329E-2</v>
+      <c r="J19" s="40" t="n">
+        <v>0.1527777777777778</v>
+      </c>
+      <c r="K19" s="40" t="n">
+        <v>0.7638888888888888</v>
+      </c>
+      <c r="L19" s="40" t="n">
+        <v>0.08333333333333333</v>
       </c>
       <c r="M19" s="3">
         <f>100*K19/(SUM(J19:L19))</f>
@@ -7541,14 +7542,14 @@
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="40">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D20" s="40">
-        <v>0</v>
-      </c>
-      <c r="E20" s="40">
-        <v>0.83333333333333337</v>
+      <c r="C20" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D20" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E20" s="40" t="n">
+        <v>0.3333333333333333</v>
       </c>
       <c r="F20" s="3">
         <f>100*E20/SUM(C20:E20)</f>
@@ -7558,14 +7559,14 @@
       <c r="I20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="40">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K20" s="40">
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="L20" s="40">
-        <v>0.7592592592592593</v>
+      <c r="J20" s="40" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K20" s="40" t="n">
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="L20" s="40" t="n">
+        <v>0.7037037037037037</v>
       </c>
       <c r="M20" s="3">
         <f>100*L20/(SUM(J20:L20))</f>
@@ -7637,40 +7638,40 @@
       <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="40" t="n">
         <v>0.6</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="40" t="n">
         <v>0.4</v>
       </c>
-      <c r="E24" s="40">
-        <v>0</v>
+      <c r="E24" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F24" s="3">
         <f>100*C24/SUM(C24:E24)</f>
         <v>60</v>
       </c>
-      <c r="G24" s="63">
-        <v>42.105263157894733</v>
+      <c r="G24" s="63" t="n">
+        <v>31.57894736842105</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="40">
-        <v>0.75555555555555554</v>
-      </c>
-      <c r="K24" s="40">
-        <v>0.2</v>
-      </c>
-      <c r="L24" s="40">
-        <v>4.4444444444444446E-2</v>
+      <c r="J24" s="40" t="n">
+        <v>0.7111111111111111</v>
+      </c>
+      <c r="K24" s="40" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="L24" s="40" t="n">
+        <v>0.06666666666666667</v>
       </c>
       <c r="M24" s="3">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>75.555555555555571</v>
       </c>
-      <c r="N24" s="63">
-        <v>32.163742690058477</v>
+      <c r="N24" s="63" t="n">
+        <v>37.42690058479532</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -7678,14 +7679,14 @@
       <c r="B25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="40" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E25" s="40" t="n">
         <v>0.25</v>
-      </c>
-      <c r="D25" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="E25" s="40">
-        <v>0</v>
       </c>
       <c r="F25" s="3">
         <f>100*D25/SUM(C25:E25)</f>
@@ -7695,13 +7696,13 @@
       <c r="I25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="40">
-        <v>9.7222222222222224E-2</v>
-      </c>
-      <c r="K25" s="40">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="L25" s="40">
+      <c r="J25" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="K25" s="40" t="n">
+        <v>0.6805555555555556</v>
+      </c>
+      <c r="L25" s="40" t="n">
         <v>0.19444444444444445</v>
       </c>
       <c r="M25" s="3">
@@ -7715,14 +7716,14 @@
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="40">
-        <v>0</v>
-      </c>
-      <c r="D26" s="40">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E26" s="40">
-        <v>0.33333333333333331</v>
+      <c r="C26" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E26" s="40" t="n">
+        <v>0.6666666666666666</v>
       </c>
       <c r="F26" s="3">
         <f>100*E26/SUM(C26:E26)</f>
@@ -7732,14 +7733,14 @@
       <c r="I26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="40">
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="K26" s="40">
-        <v>0.35185185185185186</v>
-      </c>
-      <c r="L26" s="40">
-        <v>0.57407407407407407</v>
+      <c r="J26" s="40" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K26" s="40" t="n">
+        <v>0.4074074074074074</v>
+      </c>
+      <c r="L26" s="40" t="n">
+        <v>0.48148148148148145</v>
       </c>
       <c r="M26" s="3">
         <f>100*L26/(SUM(J26:L26))</f>
@@ -7803,11 +7804,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -7903,41 +7904,41 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="40" t="n">
         <v>0.8</v>
       </c>
-      <c r="D6" s="40">
-        <v>0</v>
-      </c>
-      <c r="E6" s="40">
+      <c r="D6" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="40" t="n">
         <v>0.2</v>
       </c>
       <c r="F6" s="3">
         <f>100*C6/SUM(C6:E6)</f>
         <v>80</v>
       </c>
-      <c r="G6" s="63">
-        <v>26.315789473684209</v>
+      <c r="G6" s="63" t="n">
+        <v>31.57894736842105</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="40">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K6" s="40">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="L6" s="40">
-        <v>0.1111111111111111</v>
+      <c r="J6" s="40" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K6" s="40" t="n">
+        <v>0.24444444444444444</v>
+      </c>
+      <c r="L6" s="40" t="n">
+        <v>0.08888888888888889</v>
       </c>
       <c r="M6" s="3">
         <f>100*J6/(SUM(J6:L6))</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="N6" s="63">
-        <v>30.994152046783626</v>
+      <c r="N6" s="63" t="n">
+        <v>30.409356725146196</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -7945,14 +7946,14 @@
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="40">
-        <v>0</v>
-      </c>
-      <c r="D7" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E7" s="40">
-        <v>0.125</v>
+      <c r="C7" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="40" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="40" t="n">
+        <v>0.25</v>
       </c>
       <c r="F7" s="3">
         <f>100*D7/SUM(C7:E7)</f>
@@ -7963,14 +7964,14 @@
       <c r="I7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="40">
-        <v>6.9444444444444448E-2</v>
-      </c>
-      <c r="K7" s="40">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="L7" s="40">
-        <v>0.19444444444444445</v>
+      <c r="J7" s="40" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="K7" s="40" t="n">
+        <v>0.7638888888888888</v>
+      </c>
+      <c r="L7" s="40" t="n">
+        <v>0.18055555555555555</v>
       </c>
       <c r="M7" s="3">
         <f>100*K7/(SUM(J7:L7))</f>
@@ -7983,13 +7984,13 @@
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="40">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D8" s="40">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E8" s="40">
+      <c r="C8" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="40" t="n">
         <v>0.5</v>
       </c>
       <c r="F8" s="3">
@@ -8001,14 +8002,14 @@
       <c r="I8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="40">
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="K8" s="40">
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="L8" s="40">
-        <v>0.64814814814814814</v>
+      <c r="J8" s="40" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K8" s="40" t="n">
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="L8" s="40" t="n">
+        <v>0.6296296296296297</v>
       </c>
       <c r="M8" s="3">
         <f>100*L8/(SUM(J8:L8))</f>
@@ -8080,40 +8081,40 @@
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="40" t="n">
         <v>0.8</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="40" t="n">
         <v>0.2</v>
       </c>
-      <c r="E12" s="40">
-        <v>0</v>
+      <c r="E12" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F12" s="3">
         <f>100*C12/SUM(C12:E12)</f>
         <v>80</v>
       </c>
-      <c r="G12" s="63">
-        <v>26.315789473684209</v>
+      <c r="G12" s="63" t="n">
+        <v>26.31578947368421</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="40">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="K12" s="40">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="L12" s="40">
-        <v>8.8888888888888892E-2</v>
+      <c r="J12" s="40" t="n">
+        <v>0.7555555555555555</v>
+      </c>
+      <c r="K12" s="40" t="n">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="L12" s="40" t="n">
+        <v>0.08888888888888889</v>
       </c>
       <c r="M12" s="3">
         <f>100*J12/(SUM(J12:L12))</f>
         <v>77.777777777777786</v>
       </c>
-      <c r="N12" s="63">
-        <v>16.959064327485379</v>
+      <c r="N12" s="63" t="n">
+        <v>19.298245614035086</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -8121,14 +8122,14 @@
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="40">
-        <v>0.125</v>
-      </c>
-      <c r="D13" s="40">
+      <c r="C13" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="40" t="n">
         <v>0.75</v>
       </c>
-      <c r="E13" s="40">
-        <v>0.125</v>
+      <c r="E13" s="40" t="n">
+        <v>0.25</v>
       </c>
       <c r="F13" s="3">
         <f>100*D13/SUM(C13:E13)</f>
@@ -8138,14 +8139,14 @@
       <c r="I13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="40">
-        <v>6.9444444444444448E-2</v>
-      </c>
-      <c r="K13" s="40">
-        <v>0.86111111111111116</v>
-      </c>
-      <c r="L13" s="40">
-        <v>6.9444444444444448E-2</v>
+      <c r="J13" s="40" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="K13" s="40" t="n">
+        <v>0.8472222222222222</v>
+      </c>
+      <c r="L13" s="40" t="n">
+        <v>0.06944444444444445</v>
       </c>
       <c r="M13" s="3">
         <f>100*K13/(SUM(J13:L13))</f>
@@ -8158,14 +8159,14 @@
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="40">
-        <v>0</v>
-      </c>
-      <c r="D14" s="40">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E14" s="40">
-        <v>0.66666666666666663</v>
+      <c r="C14" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E14" s="40" t="n">
+        <v>0.6666666666666666</v>
       </c>
       <c r="F14" s="3">
         <f>100*E14/SUM(C14:E14)</f>
@@ -8175,14 +8176,14 @@
       <c r="I14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="40">
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="K14" s="40">
-        <v>9.2592592592592587E-2</v>
-      </c>
-      <c r="L14" s="40">
-        <v>0.83333333333333337</v>
+      <c r="J14" s="40" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="K14" s="40" t="n">
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="L14" s="40" t="n">
+        <v>0.7962962962962963</v>
       </c>
       <c r="M14" s="3">
         <f>100*L14/(SUM(J14:L14))</f>
@@ -8254,40 +8255,40 @@
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="40">
-        <v>0.2</v>
-      </c>
-      <c r="D18" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="E18" s="40">
-        <v>0</v>
+      <c r="C18" s="40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D18" s="40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E18" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F18" s="3">
         <f>100*C18/SUM(C18:E18)</f>
         <v>20</v>
       </c>
-      <c r="G18" s="63">
-        <v>52.631578947368418</v>
+      <c r="G18" s="63" t="n">
+        <v>52.63157894736842</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="40">
-        <v>0.48888888888888887</v>
-      </c>
-      <c r="K18" s="40">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="L18" s="40">
-        <v>6.6666666666666666E-2</v>
+      <c r="J18" s="40" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="K18" s="40" t="n">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="L18" s="40" t="n">
+        <v>0.06666666666666667</v>
       </c>
       <c r="M18" s="3">
         <f>100*J18/(SUM(J18:L18))</f>
         <v>48.888888888888886</v>
       </c>
-      <c r="N18" s="63">
-        <v>33.333333333333329</v>
+      <c r="N18" s="63" t="n">
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -8295,14 +8296,14 @@
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="40">
-        <v>0.125</v>
-      </c>
-      <c r="D19" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="E19" s="40">
-        <v>0.125</v>
+      <c r="C19" s="40" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D19" s="40" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="40" t="n">
+        <v>0.375</v>
       </c>
       <c r="F19" s="3">
         <f>100*D19/SUM(C19:E19)</f>
@@ -8312,14 +8313,14 @@
       <c r="I19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="40">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="K19" s="40">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="L19" s="40">
-        <v>0.18055555555555555</v>
+      <c r="J19" s="40" t="n">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="K19" s="40" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L19" s="40" t="n">
+        <v>0.16666666666666666</v>
       </c>
       <c r="M19" s="3">
         <f>100*K19/(SUM(J19:L19))</f>
@@ -8332,14 +8333,14 @@
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="40" t="n">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D20" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="40">
-        <v>0.33333333333333331</v>
+      <c r="D20" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E20" s="40" t="n">
+        <v>0.6666666666666666</v>
       </c>
       <c r="F20" s="3">
         <f>100*E20/SUM(C20:E20)</f>
@@ -8349,14 +8350,14 @@
       <c r="I20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="40">
-        <v>1.8518518518518517E-2</v>
-      </c>
-      <c r="K20" s="40">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="L20" s="40">
-        <v>0.7592592592592593</v>
+      <c r="J20" s="40" t="n">
+        <v>0.018518518518518517</v>
+      </c>
+      <c r="K20" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L20" s="40" t="n">
+        <v>0.8148148148148148</v>
       </c>
       <c r="M20" s="3">
         <f>100*L20/(SUM(J20:L20))</f>
@@ -8428,39 +8429,39 @@
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="40">
-        <v>0.6</v>
-      </c>
-      <c r="D24" s="40">
+      <c r="C24" s="40" t="n">
         <v>0.4</v>
       </c>
-      <c r="E24" s="40">
-        <v>0</v>
+      <c r="D24" s="40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="40" t="n">
+        <v>0.2</v>
       </c>
       <c r="F24" s="3">
         <f>100*C24/SUM(C24:E24)</f>
         <v>60</v>
       </c>
-      <c r="G24" s="63">
+      <c r="G24" s="63" t="n">
         <v>36.84210526315789</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="40">
-        <v>0.75555555555555554</v>
-      </c>
-      <c r="K24" s="40">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="L24" s="40">
-        <v>6.6666666666666666E-2</v>
+      <c r="J24" s="40" t="n">
+        <v>0.8222222222222222</v>
+      </c>
+      <c r="K24" s="40" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="L24" s="40" t="n">
+        <v>0.044444444444444446</v>
       </c>
       <c r="M24" s="3">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>75.555555555555557</v>
       </c>
-      <c r="N24" s="63">
+      <c r="N24" s="63" t="n">
         <v>23.976608187134502</v>
       </c>
     </row>
@@ -8469,13 +8470,13 @@
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25" s="40" t="n">
         <v>0.125</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="40" t="n">
         <v>0.75</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="40" t="n">
         <v>0.125</v>
       </c>
       <c r="F25" s="3">
@@ -8486,14 +8487,14 @@
       <c r="I25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="40">
-        <v>9.7222222222222224E-2</v>
-      </c>
-      <c r="K25" s="40">
-        <v>0.80555555555555558</v>
-      </c>
-      <c r="L25" s="40">
-        <v>9.7222222222222224E-2</v>
+      <c r="J25" s="40" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="K25" s="40" t="n">
+        <v>0.7638888888888888</v>
+      </c>
+      <c r="L25" s="40" t="n">
+        <v>0.16666666666666666</v>
       </c>
       <c r="M25" s="3">
         <f>100*K25/(SUM(J25:L25))</f>
@@ -8506,14 +8507,14 @@
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="40">
-        <v>0</v>
-      </c>
-      <c r="D26" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="E26" s="40">
-        <v>0.5</v>
+      <c r="C26" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D26" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E26" s="40" t="n">
+        <v>0.6666666666666666</v>
       </c>
       <c r="F26" s="3">
         <f>100*E26/SUM(C26:E26)</f>
@@ -8523,14 +8524,14 @@
       <c r="I26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="40">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="K26" s="40">
-        <v>0.18518518518518517</v>
-      </c>
-      <c r="L26" s="40">
-        <v>0.70370370370370372</v>
+      <c r="J26" s="40" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="K26" s="40" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="L26" s="40" t="n">
+        <v>0.7037037037037037</v>
       </c>
       <c r="M26" s="3">
         <f>100*L26/(SUM(J26:L26))</f>
@@ -8594,11 +8595,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -8694,40 +8695,40 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="40" t="n">
         <v>0.6</v>
       </c>
-      <c r="D6" s="40">
-        <v>0.4</v>
-      </c>
-      <c r="E6" s="40">
-        <v>0</v>
+      <c r="E6" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F6" s="3">
         <f>100*C6/SUM(C6:E6)</f>
         <v>60</v>
       </c>
-      <c r="G6" s="63">
-        <v>26.315789473684209</v>
+      <c r="G6" s="63" t="n">
+        <v>31.57894736842105</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="40">
-        <v>0.75555555555555554</v>
-      </c>
-      <c r="K6" s="40">
+      <c r="J6" s="40" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="K6" s="40" t="n">
         <v>0.17777777777777778</v>
       </c>
-      <c r="L6" s="40">
-        <v>6.6666666666666666E-2</v>
+      <c r="L6" s="40" t="n">
+        <v>0.044444444444444446</v>
       </c>
       <c r="M6" s="3">
         <f>100*J6/(SUM(J6:L6))</f>
         <v>75.555555555555557</v>
       </c>
-      <c r="N6" s="63">
+      <c r="N6" s="63" t="n">
         <v>23.976608187134502</v>
       </c>
     </row>
@@ -8736,14 +8737,14 @@
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="40">
-        <v>0.125</v>
-      </c>
-      <c r="D7" s="40">
+      <c r="C7" s="40" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D7" s="40" t="n">
         <v>0.75</v>
       </c>
-      <c r="E7" s="40">
-        <v>0.125</v>
+      <c r="E7" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F7" s="3">
         <f>100*D7/SUM(C7:E7)</f>
@@ -8754,14 +8755,14 @@
       <c r="I7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="40">
-        <v>0.15277777777777779</v>
-      </c>
-      <c r="K7" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="L7" s="40">
-        <v>9.7222222222222224E-2</v>
+      <c r="J7" s="40" t="n">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="K7" s="40" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L7" s="40" t="n">
+        <v>0.09722222222222222</v>
       </c>
       <c r="M7" s="3">
         <f>100*K7/(SUM(J7:L7))</f>
@@ -8774,14 +8775,14 @@
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="40" t="n">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D8" s="40">
-        <v>0</v>
-      </c>
-      <c r="E8" s="40">
-        <v>0.83333333333333337</v>
+      <c r="E8" s="40" t="n">
+        <v>0.8333333333333334</v>
       </c>
       <c r="F8" s="3">
         <f>100*E8/SUM(C8:E8)</f>
@@ -8792,14 +8793,14 @@
       <c r="I8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="40">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="K8" s="40">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="L8" s="40">
-        <v>0.77777777777777779</v>
+      <c r="J8" s="40" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="K8" s="40" t="n">
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="L8" s="40" t="n">
+        <v>0.7962962962962963</v>
       </c>
       <c r="M8" s="3">
         <f>100*L8/(SUM(J8:L8))</f>
@@ -8871,40 +8872,40 @@
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="40" t="n">
         <v>0.6</v>
       </c>
-      <c r="D12" s="40">
-        <v>0.4</v>
-      </c>
-      <c r="E12" s="40">
-        <v>0</v>
+      <c r="E12" s="40" t="n">
+        <v>0.2</v>
       </c>
       <c r="F12" s="3">
         <f>100*C12/SUM(C12:E12)</f>
         <v>60</v>
       </c>
-      <c r="G12" s="63">
-        <v>31.578947368421051</v>
+      <c r="G12" s="63" t="n">
+        <v>31.57894736842105</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="40">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="K12" s="40">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L12" s="40">
-        <v>0.1111111111111111</v>
+      <c r="J12" s="40" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="K12" s="40" t="n">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="L12" s="40" t="n">
+        <v>0.15555555555555556</v>
       </c>
       <c r="M12" s="3">
         <f>100*J12/(SUM(J12:L12))</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="N12" s="63">
-        <v>32.163742690058477</v>
+      <c r="N12" s="63" t="n">
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -8912,14 +8913,14 @@
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="40">
-        <v>0</v>
-      </c>
-      <c r="D13" s="40">
-        <v>1</v>
-      </c>
-      <c r="E13" s="40">
-        <v>0</v>
+      <c r="C13" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F13" s="3">
         <f>100*D13/SUM(C13:E13)</f>
@@ -8929,14 +8930,14 @@
       <c r="I13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="40">
-        <v>0.18055555555555555</v>
-      </c>
-      <c r="K13" s="40">
+      <c r="J13" s="40" t="n">
+        <v>0.1527777777777778</v>
+      </c>
+      <c r="K13" s="40" t="n">
         <v>0.75</v>
       </c>
-      <c r="L13" s="40">
-        <v>6.9444444444444448E-2</v>
+      <c r="L13" s="40" t="n">
+        <v>0.09722222222222222</v>
       </c>
       <c r="M13" s="3">
         <f>100*K13/(SUM(J13:L13))</f>
@@ -8949,14 +8950,14 @@
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="40">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D14" s="40">
-        <v>0</v>
-      </c>
-      <c r="E14" s="40">
-        <v>0.33333333333333331</v>
+      <c r="C14" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D14" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="40" t="n">
+        <v>0.6666666666666666</v>
       </c>
       <c r="F14" s="3">
         <f>100*E14/SUM(C14:E14)</f>
@@ -8966,14 +8967,14 @@
       <c r="I14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="40">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="K14" s="40">
-        <v>9.2592592592592587E-2</v>
-      </c>
-      <c r="L14" s="40">
-        <v>0.68518518518518523</v>
+      <c r="J14" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K14" s="40" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L14" s="40" t="n">
+        <v>0.7222222222222222</v>
       </c>
       <c r="M14" s="3">
         <f>100*L14/(SUM(J14:L14))</f>
@@ -9045,40 +9046,40 @@
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="D18" s="40">
-        <v>0.2</v>
-      </c>
-      <c r="E18" s="40">
-        <v>0</v>
+      <c r="C18" s="40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D18" s="40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E18" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F18" s="3">
         <f>100*C18/SUM(C18:E18)</f>
         <v>80</v>
       </c>
-      <c r="G18" s="63">
-        <v>15.789473684210526</v>
+      <c r="G18" s="63" t="n">
+        <v>31.57894736842105</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="40">
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="K18" s="40">
+      <c r="J18" s="40" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="K18" s="40" t="n">
         <v>0.24444444444444444</v>
       </c>
-      <c r="L18" s="40">
-        <v>2.2222222222222223E-2</v>
+      <c r="L18" s="40" t="n">
+        <v>0.022222222222222223</v>
       </c>
       <c r="M18" s="3">
         <f>100*J18/(SUM(J18:L18))</f>
         <v>73.333333333333329</v>
       </c>
-      <c r="N18" s="63">
-        <v>23.976608187134502</v>
+      <c r="N18" s="63" t="n">
+        <v>21.052631578947366</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -9086,14 +9087,14 @@
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="40">
-        <v>0</v>
-      </c>
-      <c r="D19" s="40">
-        <v>1</v>
-      </c>
-      <c r="E19" s="40">
-        <v>0</v>
+      <c r="C19" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" s="40" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E19" s="40" t="n">
+        <v>0.125</v>
       </c>
       <c r="F19" s="3">
         <f>100*D19/SUM(C19:E19)</f>
@@ -9103,14 +9104,14 @@
       <c r="I19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="40" t="n">
         <v>0.16666666666666666</v>
       </c>
-      <c r="K19" s="40">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="L19" s="40">
-        <v>5.5555555555555552E-2</v>
+      <c r="K19" s="40" t="n">
+        <v>0.8194444444444444</v>
+      </c>
+      <c r="L19" s="40" t="n">
+        <v>0.013888888888888888</v>
       </c>
       <c r="M19" s="3">
         <f>100*K19/(SUM(J19:L19))</f>
@@ -9123,14 +9124,14 @@
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="40">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D20" s="40">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E20" s="40">
-        <v>0.66666666666666663</v>
+      <c r="C20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="40" t="n">
+        <v>0.5</v>
       </c>
       <c r="F20" s="3">
         <f>100*E20/SUM(C20:E20)</f>
@@ -9140,14 +9141,14 @@
       <c r="I20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="40">
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="K20" s="40">
-        <v>0.20370370370370369</v>
-      </c>
-      <c r="L20" s="40">
-        <v>0.7592592592592593</v>
+      <c r="J20" s="40" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="K20" s="40" t="n">
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="L20" s="40" t="n">
+        <v>0.7962962962962963</v>
       </c>
       <c r="M20" s="3">
         <f>100*L20/(SUM(J20:L20))</f>
@@ -9219,40 +9220,40 @@
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="D24" s="40">
-        <v>0.2</v>
-      </c>
-      <c r="E24" s="40">
-        <v>0</v>
+      <c r="C24" s="40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D24" s="40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F24" s="3">
         <f>100*C24/SUM(C24:E24)</f>
         <v>80</v>
       </c>
-      <c r="G24" s="63">
-        <v>47.368421052631575</v>
+      <c r="G24" s="63" t="n">
+        <v>42.10526315789473</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="40">
-        <v>0.6</v>
-      </c>
-      <c r="K24" s="40">
-        <v>0.35555555555555557</v>
-      </c>
-      <c r="L24" s="40">
-        <v>4.4444444444444446E-2</v>
+      <c r="J24" s="40" t="n">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="K24" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L24" s="40" t="n">
+        <v>0.044444444444444446</v>
       </c>
       <c r="M24" s="3">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>60.000000000000007</v>
       </c>
-      <c r="N24" s="63">
-        <v>40.935672514619881</v>
+      <c r="N24" s="63" t="n">
+        <v>37.42690058479532</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -9260,14 +9261,14 @@
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="D25" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E25" s="40">
-        <v>0.5</v>
+      <c r="C25" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D25" s="40" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E25" s="40" t="n">
+        <v>0.125</v>
       </c>
       <c r="F25" s="3">
         <f>100*D25/SUM(C25:E25)</f>
@@ -9277,14 +9278,14 @@
       <c r="I25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="40">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="K25" s="40">
-        <v>0.61111111111111116</v>
-      </c>
-      <c r="L25" s="40">
-        <v>0.27777777777777779</v>
+      <c r="J25" s="40" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="K25" s="40" t="n">
+        <v>0.7638888888888888</v>
+      </c>
+      <c r="L25" s="40" t="n">
+        <v>0.16666666666666666</v>
       </c>
       <c r="M25" s="3">
         <f>100*K25/(SUM(J25:L25))</f>
@@ -9297,14 +9298,14 @@
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="40">
-        <v>0</v>
-      </c>
-      <c r="D26" s="40">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E26" s="40">
-        <v>0.66666666666666663</v>
+      <c r="C26" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="40" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E26" s="40" t="n">
+        <v>0.3333333333333333</v>
       </c>
       <c r="F26" s="3">
         <f>100*E26/SUM(C26:E26)</f>
@@ -9314,14 +9315,14 @@
       <c r="I26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="40">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="K26" s="40">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="L26" s="40">
-        <v>0.55555555555555558</v>
+      <c r="J26" s="40" t="n">
+        <v>0.12962962962962962</v>
+      </c>
+      <c r="K26" s="40" t="n">
+        <v>0.42592592592592593</v>
+      </c>
+      <c r="L26" s="40" t="n">
+        <v>0.4444444444444444</v>
       </c>
       <c r="M26" s="3">
         <f>100*L26/(SUM(J26:L26))</f>
@@ -9385,11 +9386,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -9485,40 +9486,40 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="D6" s="40">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="40">
-        <v>0</v>
+      <c r="C6" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F6" s="3">
         <f>100*C6/SUM(C6:E6)</f>
         <v>80</v>
       </c>
-      <c r="G6" s="63">
-        <v>15.789473684210526</v>
+      <c r="G6" s="63" t="n">
+        <v>21.052631578947366</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="40">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="K6" s="40">
+      <c r="J6" s="40" t="n">
+        <v>0.7555555555555555</v>
+      </c>
+      <c r="K6" s="40" t="n">
         <v>0.2</v>
       </c>
-      <c r="L6" s="40">
-        <v>2.2222222222222223E-2</v>
+      <c r="L6" s="40" t="n">
+        <v>0.044444444444444446</v>
       </c>
       <c r="M6" s="3">
         <f>100*J6/(SUM(J6:L6))</f>
         <v>77.777777777777786</v>
       </c>
-      <c r="N6" s="63">
+      <c r="N6" s="63" t="n">
         <v>24.561403508771928</v>
       </c>
     </row>
@@ -9527,14 +9528,14 @@
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="40">
-        <v>0.125</v>
-      </c>
-      <c r="D7" s="40">
+      <c r="C7" s="40" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D7" s="40" t="n">
         <v>0.75</v>
       </c>
-      <c r="E7" s="40">
-        <v>0.125</v>
+      <c r="E7" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F7" s="3">
         <f>100*D7/SUM(C7:E7)</f>
@@ -9545,14 +9546,14 @@
       <c r="I7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="40">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="K7" s="40">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="L7" s="40">
-        <v>0.18055555555555555</v>
+      <c r="J7" s="40" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="K7" s="40" t="n">
+        <v>0.7638888888888888</v>
+      </c>
+      <c r="L7" s="40" t="n">
+        <v>0.1388888888888889</v>
       </c>
       <c r="M7" s="3">
         <f>100*K7/(SUM(J7:L7))</f>
@@ -9565,14 +9566,14 @@
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="40">
-        <v>0</v>
-      </c>
-      <c r="D8" s="40">
-        <v>0</v>
-      </c>
-      <c r="E8" s="40">
-        <v>1</v>
+      <c r="C8" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E8" s="40" t="n">
+        <v>0.6666666666666666</v>
       </c>
       <c r="F8" s="3">
         <f>100*E8/SUM(C8:E8)</f>
@@ -9583,14 +9584,14 @@
       <c r="I8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="40">
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="K8" s="40">
-        <v>0.20370370370370369</v>
-      </c>
-      <c r="L8" s="40">
-        <v>0.7592592592592593</v>
+      <c r="J8" s="40" t="n">
+        <v>0.018518518518518517</v>
+      </c>
+      <c r="K8" s="40" t="n">
+        <v>0.24074074074074073</v>
+      </c>
+      <c r="L8" s="40" t="n">
+        <v>0.7407407407407407</v>
       </c>
       <c r="M8" s="3">
         <f>100*L8/(SUM(J8:L8))</f>
@@ -9662,40 +9663,40 @@
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="D12" s="40">
-        <v>0</v>
-      </c>
-      <c r="E12" s="40">
-        <v>0.2</v>
+      <c r="C12" s="40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="40" t="n">
+        <v>0.6</v>
       </c>
       <c r="F12" s="3">
         <f>100*C12/SUM(C12:E12)</f>
         <v>80</v>
       </c>
-      <c r="G12" s="63">
-        <v>10.526315789473683</v>
+      <c r="G12" s="63" t="n">
+        <v>26.31578947368421</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="40">
-        <v>0.84444444444444444</v>
-      </c>
-      <c r="K12" s="40">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="L12" s="40">
-        <v>8.8888888888888892E-2</v>
+      <c r="J12" s="40" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="K12" s="40" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="L12" s="40" t="n">
+        <v>0.044444444444444446</v>
       </c>
       <c r="M12" s="3">
         <f>100*J12/(SUM(J12:L12))</f>
         <v>84.444444444444443</v>
       </c>
-      <c r="N12" s="63">
-        <v>11.111111111111111</v>
+      <c r="N12" s="63" t="n">
+        <v>11.695906432748536</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -9703,14 +9704,14 @@
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="40">
-        <v>0</v>
-      </c>
-      <c r="D13" s="40">
-        <v>1</v>
-      </c>
-      <c r="E13" s="40">
-        <v>0</v>
+      <c r="C13" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="40" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E13" s="40" t="n">
+        <v>0.25</v>
       </c>
       <c r="F13" s="3">
         <f>100*D13/SUM(C13:E13)</f>
@@ -9720,14 +9721,14 @@
       <c r="I13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="40">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="K13" s="40">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="L13" s="40">
-        <v>2.7777777777777776E-2</v>
+      <c r="J13" s="40" t="n">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="K13" s="40" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="L13" s="40" t="n">
+        <v>0.09722222222222222</v>
       </c>
       <c r="M13" s="3">
         <f>100*K13/(SUM(J13:L13))</f>
@@ -9740,14 +9741,14 @@
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="40">
-        <v>0</v>
-      </c>
-      <c r="D14" s="40">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E14" s="40">
-        <v>0.83333333333333337</v>
+      <c r="C14" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="40" t="n">
+        <v>1.0</v>
       </c>
       <c r="F14" s="3">
         <f>100*E14/SUM(C14:E14)</f>
@@ -9757,14 +9758,14 @@
       <c r="I14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="40">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="K14" s="40">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="L14" s="40">
-        <v>0.83333333333333337</v>
+      <c r="J14" s="40" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+      <c r="K14" s="40" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="L14" s="40" t="n">
+        <v>0.8888888888888888</v>
       </c>
       <c r="M14" s="3">
         <f>100*L14/(SUM(J14:L14))</f>
@@ -9836,40 +9837,40 @@
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="40">
-        <v>0.2</v>
-      </c>
-      <c r="D18" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="E18" s="40">
-        <v>0</v>
+      <c r="C18" s="40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D18" s="40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E18" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F18" s="3">
         <f>100*C18/SUM(C18:E18)</f>
         <v>20</v>
       </c>
-      <c r="G18" s="63">
-        <v>42.105263157894733</v>
+      <c r="G18" s="63" t="n">
+        <v>26.31578947368421</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="40">
-        <v>0.62222222222222223</v>
-      </c>
-      <c r="K18" s="40">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L18" s="40">
-        <v>4.4444444444444446E-2</v>
+      <c r="J18" s="40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K18" s="40" t="n">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="L18" s="40" t="n">
+        <v>0.044444444444444446</v>
       </c>
       <c r="M18" s="3">
         <f>100*J18/(SUM(J18:L18))</f>
         <v>62.222222222222229</v>
       </c>
-      <c r="N18" s="63">
-        <v>24.561403508771928</v>
+      <c r="N18" s="63" t="n">
+        <v>25.146198830409354</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -9877,14 +9878,14 @@
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="D19" s="40">
-        <v>0.625</v>
-      </c>
-      <c r="E19" s="40">
-        <v>0.125</v>
+      <c r="C19" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F19" s="3">
         <f>100*D19/SUM(C19:E19)</f>
@@ -9894,14 +9895,14 @@
       <c r="I19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="40">
-        <v>6.9444444444444448E-2</v>
-      </c>
-      <c r="K19" s="40">
-        <v>0.80555555555555558</v>
-      </c>
-      <c r="L19" s="40">
-        <v>0.125</v>
+      <c r="J19" s="40" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K19" s="40" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L19" s="40" t="n">
+        <v>0.09722222222222222</v>
       </c>
       <c r="M19" s="3">
         <f>100*K19/(SUM(J19:L19))</f>
@@ -9914,14 +9915,14 @@
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="40">
-        <v>0</v>
-      </c>
-      <c r="D20" s="40">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E20" s="40">
-        <v>0.83333333333333337</v>
+      <c r="C20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E20" s="40" t="n">
+        <v>0.6666666666666666</v>
       </c>
       <c r="F20" s="3">
         <f>100*E20/SUM(C20:E20)</f>
@@ -9931,14 +9932,14 @@
       <c r="I20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="40">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="K20" s="40">
+      <c r="J20" s="40" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+      <c r="K20" s="40" t="n">
         <v>0.14814814814814814</v>
       </c>
-      <c r="L20" s="40">
-        <v>0.79629629629629628</v>
+      <c r="L20" s="40" t="n">
+        <v>0.8148148148148148</v>
       </c>
       <c r="M20" s="3">
         <f>100*L20/(SUM(J20:L20))</f>
@@ -10010,40 +10011,40 @@
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="40">
-        <v>1</v>
-      </c>
-      <c r="D24" s="40">
-        <v>0</v>
-      </c>
-      <c r="E24" s="40">
-        <v>0</v>
+      <c r="C24" s="40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E24" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F24" s="3">
         <f>100*C24/SUM(C24:E24)</f>
         <v>100</v>
       </c>
-      <c r="G24" s="63">
-        <v>15.789473684210526</v>
+      <c r="G24" s="63" t="n">
+        <v>26.31578947368421</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="40">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="K24" s="40">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="L24" s="40">
-        <v>0</v>
+      <c r="J24" s="40" t="n">
+        <v>0.8222222222222222</v>
+      </c>
+      <c r="K24" s="40" t="n">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="L24" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="M24" s="3">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>77.777777777777786</v>
       </c>
-      <c r="N24" s="63">
-        <v>24.561403508771928</v>
+      <c r="N24" s="63" t="n">
+        <v>22.807017543859647</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -10051,13 +10052,13 @@
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="40">
-        <v>0</v>
-      </c>
-      <c r="D25" s="40">
+      <c r="C25" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="40" t="n">
         <v>0.875</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="40" t="n">
         <v>0.125</v>
       </c>
       <c r="F25" s="3">
@@ -10068,14 +10069,14 @@
       <c r="I25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="40">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="K25" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="L25" s="40">
-        <v>0.1388888888888889</v>
+      <c r="J25" s="40" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="K25" s="40" t="n">
+        <v>0.7638888888888888</v>
+      </c>
+      <c r="L25" s="40" t="n">
+        <v>0.1527777777777778</v>
       </c>
       <c r="M25" s="3">
         <f>100*K25/(SUM(J25:L25))</f>
@@ -10088,14 +10089,14 @@
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="40">
-        <v>0</v>
-      </c>
-      <c r="D26" s="40">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E26" s="40">
-        <v>0.66666666666666663</v>
+      <c r="C26" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D26" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" s="40" t="n">
+        <v>0.8333333333333334</v>
       </c>
       <c r="F26" s="3">
         <f>100*E26/SUM(C26:E26)</f>
@@ -10105,13 +10106,13 @@
       <c r="I26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="40">
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="K26" s="40">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="L26" s="40">
+      <c r="J26" s="40" t="n">
+        <v>0.018518518518518517</v>
+      </c>
+      <c r="K26" s="40" t="n">
+        <v>0.24074074074074073</v>
+      </c>
+      <c r="L26" s="40" t="n">
         <v>0.7407407407407407</v>
       </c>
       <c r="M26" s="3">
@@ -10175,11 +10176,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -10272,41 +10273,41 @@
       <c r="B6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="40">
-        <v>0.6</v>
-      </c>
-      <c r="D6" s="40">
-        <v>0.4</v>
-      </c>
-      <c r="E6" s="40">
-        <v>0</v>
+      <c r="C6" s="40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F6" s="3">
         <f>100*C6/SUM(C6:E6)</f>
         <v>60</v>
       </c>
-      <c r="G6" s="63">
-        <v>31.578947368421051</v>
+      <c r="G6" s="63" t="n">
+        <v>36.84210526315789</v>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="40">
-        <v>0.62222222222222223</v>
-      </c>
-      <c r="K6" s="40">
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="L6" s="40">
+      <c r="J6" s="40" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="K6" s="40" t="n">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="L6" s="40" t="n">
         <v>0.1111111111111111</v>
       </c>
       <c r="M6" s="3">
         <f>100*J6/(SUM(J6:L6))</f>
         <v>62.222222222222221</v>
       </c>
-      <c r="N6" s="63">
-        <v>26.315789473684209</v>
+      <c r="N6" s="63" t="n">
+        <v>28.654970760233915</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -10314,14 +10315,14 @@
       <c r="B7" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="40">
-        <v>0.125</v>
-      </c>
-      <c r="D7" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E7" s="40">
-        <v>0</v>
+      <c r="C7" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="40" t="n">
+        <v>0.5</v>
       </c>
       <c r="F7" s="3">
         <f>100*D7/SUM(C7:E7)</f>
@@ -10332,14 +10333,14 @@
       <c r="I7" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="40">
-        <v>0.125</v>
-      </c>
-      <c r="K7" s="40">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="L7" s="40">
-        <v>9.7222222222222224E-2</v>
+      <c r="J7" s="40" t="n">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="K7" s="40" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L7" s="40" t="n">
+        <v>0.06944444444444445</v>
       </c>
       <c r="M7" s="3">
         <f>100*K7/(SUM(J7:L7))</f>
@@ -10352,14 +10353,14 @@
       <c r="B8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="40">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D8" s="40">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E8" s="40">
-        <v>0.5</v>
+      <c r="C8" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D8" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="40" t="n">
+        <v>0.6666666666666666</v>
       </c>
       <c r="F8" s="3">
         <f>100*E8/SUM(C8:E8)</f>
@@ -10370,14 +10371,14 @@
       <c r="I8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="40">
-        <v>0.12962962962962962</v>
-      </c>
-      <c r="K8" s="40">
-        <v>9.2592592592592587E-2</v>
-      </c>
-      <c r="L8" s="40">
-        <v>0.77777777777777779</v>
+      <c r="J8" s="40" t="n">
+        <v>0.09259259259259259</v>
+      </c>
+      <c r="K8" s="40" t="n">
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="L8" s="40" t="n">
+        <v>0.7592592592592593</v>
       </c>
       <c r="M8" s="3">
         <f>100*L8/(SUM(J8:L8))</f>
@@ -10449,40 +10450,40 @@
       <c r="B12" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="40" t="n">
         <v>0.4</v>
-      </c>
-      <c r="D12" s="40">
-        <v>0.6</v>
-      </c>
-      <c r="E12" s="40">
-        <v>0</v>
       </c>
       <c r="F12" s="3">
         <f>100*C12/SUM(C12:E12)</f>
         <v>40</v>
       </c>
-      <c r="G12" s="63">
-        <v>36.84210526315789</v>
+      <c r="G12" s="63" t="n">
+        <v>42.10526315789473</v>
       </c>
       <c r="I12" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="40">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="K12" s="40">
-        <v>0.24444444444444444</v>
-      </c>
-      <c r="L12" s="40">
-        <v>0.2</v>
+      <c r="J12" s="40" t="n">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="K12" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L12" s="40" t="n">
+        <v>0.17777777777777778</v>
       </c>
       <c r="M12" s="3">
         <f>100*J12/(SUM(J12:L12))</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="N12" s="63">
-        <v>31.578947368421051</v>
+      <c r="N12" s="63" t="n">
+        <v>35.08771929824561</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -10490,14 +10491,14 @@
       <c r="B13" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="40">
-        <v>0</v>
-      </c>
-      <c r="D13" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="E13" s="40">
-        <v>0.25</v>
+      <c r="C13" s="40" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="D13" s="40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="40" t="n">
+        <v>0.125</v>
       </c>
       <c r="F13" s="3">
         <f>100*D13/SUM(C13:E13)</f>
@@ -10507,14 +10508,14 @@
       <c r="I13" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="40">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="K13" s="40">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="L13" s="40">
-        <v>8.3333333333333329E-2</v>
+      <c r="J13" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K13" s="40" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L13" s="40" t="n">
+        <v>0.05555555555555555</v>
       </c>
       <c r="M13" s="3">
         <f>100*K13/(SUM(J13:L13))</f>
@@ -10527,14 +10528,14 @@
       <c r="B14" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="40" t="n">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="40" t="n">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E14" s="40">
-        <v>0.66666666666666663</v>
+      <c r="E14" s="40" t="n">
+        <v>0.6666666666666666</v>
       </c>
       <c r="F14" s="3">
         <f>100*E14/SUM(C14:E14)</f>
@@ -10544,14 +10545,14 @@
       <c r="I14" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="40">
-        <v>0.14814814814814814</v>
-      </c>
-      <c r="K14" s="40">
-        <v>0.18518518518518517</v>
-      </c>
-      <c r="L14" s="40">
-        <v>0.66666666666666663</v>
+      <c r="J14" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K14" s="40" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="L14" s="40" t="n">
+        <v>0.6111111111111112</v>
       </c>
       <c r="M14" s="3">
         <f>100*L14/(SUM(J14:L14))</f>
@@ -10623,40 +10624,40 @@
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="D18" s="40">
-        <v>0.2</v>
-      </c>
-      <c r="E18" s="40">
-        <v>0</v>
+      <c r="C18" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F18" s="3">
         <f>100*C18/SUM(C18:E18)</f>
         <v>80</v>
       </c>
-      <c r="G18" s="63">
-        <v>42.105263157894733</v>
+      <c r="G18" s="63" t="n">
+        <v>10.526315789473683</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="K18" s="40">
-        <v>0.2</v>
-      </c>
-      <c r="L18" s="40">
-        <v>0</v>
+      <c r="J18" s="40" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K18" s="40" t="n">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="L18" s="40" t="n">
+        <v>0.15555555555555556</v>
       </c>
       <c r="M18" s="3">
         <f>100*J18/(SUM(J18:L18))</f>
         <v>80</v>
       </c>
-      <c r="N18" s="63">
-        <v>20.467836257309941</v>
+      <c r="N18" s="63" t="n">
+        <v>28.07017543859649</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -10664,14 +10665,14 @@
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="D19" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="E19" s="40">
-        <v>0</v>
+      <c r="C19" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D19" s="40" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E19" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F19" s="3">
         <f>100*D19/SUM(C19:E19)</f>
@@ -10681,14 +10682,14 @@
       <c r="I19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="40">
-        <v>0.15277777777777779</v>
-      </c>
-      <c r="K19" s="40">
-        <v>0.81944444444444442</v>
-      </c>
-      <c r="L19" s="40">
-        <v>2.7777777777777776E-2</v>
+      <c r="J19" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K19" s="40" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L19" s="40" t="n">
+        <v>0.05555555555555555</v>
       </c>
       <c r="M19" s="3">
         <f>100*K19/(SUM(J19:L19))</f>
@@ -10701,14 +10702,14 @@
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="40">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D20" s="40">
+      <c r="C20" s="40" t="n">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E20" s="40">
-        <v>0.16666666666666666</v>
+      <c r="D20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="40" t="n">
+        <v>0.8333333333333334</v>
       </c>
       <c r="F20" s="3">
         <f>100*E20/SUM(C20:E20)</f>
@@ -10718,14 +10719,14 @@
       <c r="I20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="40">
-        <v>9.2592592592592587E-2</v>
-      </c>
-      <c r="K20" s="40">
-        <v>0.14814814814814814</v>
-      </c>
-      <c r="L20" s="40">
-        <v>0.7592592592592593</v>
+      <c r="J20" s="40" t="n">
+        <v>0.2037037037037037</v>
+      </c>
+      <c r="K20" s="40" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L20" s="40" t="n">
+        <v>0.6851851851851852</v>
       </c>
       <c r="M20" s="3">
         <f>100*L20/(SUM(J20:L20))</f>
@@ -10797,40 +10798,40 @@
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="40" t="n">
         <v>0.8</v>
       </c>
-      <c r="D24" s="40">
-        <v>0.2</v>
-      </c>
-      <c r="E24" s="40">
-        <v>0</v>
+      <c r="E24" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F24" s="3">
         <f>100*C24/SUM(C24:E24)</f>
         <v>80</v>
       </c>
-      <c r="G24" s="63">
-        <v>36.84210526315789</v>
+      <c r="G24" s="63" t="n">
+        <v>47.368421052631575</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="40">
-        <v>0.68888888888888888</v>
-      </c>
-      <c r="K24" s="40">
-        <v>0.28888888888888886</v>
-      </c>
-      <c r="L24" s="40">
-        <v>2.2222222222222223E-2</v>
+      <c r="J24" s="40" t="n">
+        <v>0.6888888888888889</v>
+      </c>
+      <c r="K24" s="40" t="n">
+        <v>0.3111111111111111</v>
+      </c>
+      <c r="L24" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="M24" s="3">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>68.888888888888886</v>
       </c>
-      <c r="N24" s="63">
-        <v>37.42690058479532</v>
+      <c r="N24" s="63" t="n">
+        <v>36.25730994152047</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -10838,13 +10839,13 @@
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="40">
-        <v>0.125</v>
-      </c>
-      <c r="D25" s="40">
-        <v>0.625</v>
-      </c>
-      <c r="E25" s="40">
+      <c r="C25" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="40" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E25" s="40" t="n">
         <v>0.25</v>
       </c>
       <c r="F25" s="3">
@@ -10855,14 +10856,14 @@
       <c r="I25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="40">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="K25" s="40">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="L25" s="40">
-        <v>0.18055555555555555</v>
+      <c r="J25" s="40" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="K25" s="40" t="n">
+        <v>0.6527777777777778</v>
+      </c>
+      <c r="L25" s="40" t="n">
+        <v>0.25</v>
       </c>
       <c r="M25" s="3">
         <f>100*K25/(SUM(J25:L25))</f>
@@ -10875,13 +10876,13 @@
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="40">
-        <v>0</v>
-      </c>
-      <c r="D26" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="E26" s="40">
+      <c r="C26" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D26" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E26" s="40" t="n">
         <v>0.5</v>
       </c>
       <c r="F26" s="3">
@@ -10892,14 +10893,14 @@
       <c r="I26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="40">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="K26" s="40">
-        <v>0.48148148148148145</v>
-      </c>
-      <c r="L26" s="40">
-        <v>0.46296296296296297</v>
+      <c r="J26" s="40" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="K26" s="40" t="n">
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="L26" s="40" t="n">
+        <v>0.5740740740740741</v>
       </c>
       <c r="M26" s="3">
         <f>100*L26/(SUM(J26:L26))</f>
@@ -10963,11 +10964,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -11063,41 +11064,41 @@
       <c r="B6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="D6" s="40">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="40">
-        <v>0</v>
+      <c r="C6" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F6" s="3">
         <f>100*C6/SUM(C6:E6)</f>
         <v>80</v>
       </c>
-      <c r="G6" s="63">
-        <v>21.052631578947366</v>
+      <c r="G6" s="63" t="n">
+        <v>15.789473684210526</v>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="K6" s="40">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="L6" s="40">
-        <v>2.2222222222222223E-2</v>
+      <c r="J6" s="40" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="K6" s="40" t="n">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="L6" s="40" t="n">
+        <v>0.06666666666666667</v>
       </c>
       <c r="M6" s="3">
         <f>100*J6/(SUM(J6:L6))</f>
         <v>80</v>
       </c>
-      <c r="N6" s="63">
-        <v>25.730994152046783</v>
+      <c r="N6" s="63" t="n">
+        <v>24.561403508771928</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -11105,13 +11106,13 @@
       <c r="B7" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="40">
-        <v>0</v>
-      </c>
-      <c r="D7" s="40">
+      <c r="C7" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="40" t="n">
         <v>0.75</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="40" t="n">
         <v>0.25</v>
       </c>
       <c r="F7" s="3">
@@ -11123,14 +11124,14 @@
       <c r="I7" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="40">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="K7" s="40">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="L7" s="40">
-        <v>0.18055555555555555</v>
+      <c r="J7" s="40" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="K7" s="40" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L7" s="40" t="n">
+        <v>0.16666666666666666</v>
       </c>
       <c r="M7" s="3">
         <f>100*K7/(SUM(J7:L7))</f>
@@ -11143,14 +11144,14 @@
       <c r="B8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="40">
-        <v>0</v>
-      </c>
-      <c r="D8" s="40">
+      <c r="C8" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="40" t="n">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E8" s="40">
-        <v>0.83333333333333337</v>
+      <c r="E8" s="40" t="n">
+        <v>0.8333333333333334</v>
       </c>
       <c r="F8" s="3">
         <f>100*E8/SUM(C8:E8)</f>
@@ -11161,14 +11162,14 @@
       <c r="I8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="40">
-        <v>1.8518518518518517E-2</v>
-      </c>
-      <c r="K8" s="40">
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="L8" s="40">
-        <v>0.70370370370370372</v>
+      <c r="J8" s="40" t="n">
+        <v>0.018518518518518517</v>
+      </c>
+      <c r="K8" s="40" t="n">
+        <v>0.24074074074074073</v>
+      </c>
+      <c r="L8" s="40" t="n">
+        <v>0.7407407407407407</v>
       </c>
       <c r="M8" s="3">
         <f>100*L8/(SUM(J8:L8))</f>
@@ -11240,40 +11241,40 @@
       <c r="B12" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="40">
-        <v>1</v>
-      </c>
-      <c r="D12" s="40">
-        <v>0</v>
-      </c>
-      <c r="E12" s="40">
-        <v>0</v>
+      <c r="C12" s="40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="40" t="n">
+        <v>0.2</v>
       </c>
       <c r="F12" s="3">
         <f>100*C12/SUM(C12:E12)</f>
         <v>100</v>
       </c>
-      <c r="G12" s="63">
-        <v>10.526315789473683</v>
+      <c r="G12" s="63" t="n">
+        <v>15.789473684210526</v>
       </c>
       <c r="I12" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="K12" s="40">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="L12" s="40">
-        <v>0.13333333333333333</v>
+      <c r="J12" s="40" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="K12" s="40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L12" s="40" t="n">
+        <v>0.06666666666666667</v>
       </c>
       <c r="M12" s="3">
         <f>100*J12/(SUM(J12:L12))</f>
         <v>80</v>
       </c>
-      <c r="N12" s="63">
-        <v>15.789473684210526</v>
+      <c r="N12" s="63" t="n">
+        <v>21.052631578947366</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -11281,14 +11282,14 @@
       <c r="B13" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="40">
-        <v>0</v>
-      </c>
-      <c r="D13" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="E13" s="40">
-        <v>0.25</v>
+      <c r="C13" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F13" s="3">
         <f>100*D13/SUM(C13:E13)</f>
@@ -11298,14 +11299,14 @@
       <c r="I13" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="40">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="K13" s="40">
-        <v>0.90277777777777779</v>
-      </c>
-      <c r="L13" s="40">
-        <v>5.5555555555555552E-2</v>
+      <c r="J13" s="40" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="K13" s="40" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L13" s="40" t="n">
+        <v>0.06944444444444445</v>
       </c>
       <c r="M13" s="3">
         <f>100*K13/(SUM(J13:L13))</f>
@@ -11318,14 +11319,14 @@
       <c r="B14" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="40">
-        <v>0</v>
-      </c>
-      <c r="D14" s="40">
-        <v>0</v>
-      </c>
-      <c r="E14" s="40">
-        <v>1</v>
+      <c r="C14" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D14" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E14" s="40" t="n">
+        <v>0.6666666666666666</v>
       </c>
       <c r="F14" s="3">
         <f>100*E14/SUM(C14:E14)</f>
@@ -11335,14 +11336,14 @@
       <c r="I14" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="40">
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="K14" s="40">
+      <c r="J14" s="40" t="n">
+        <v>0.09259259259259259</v>
+      </c>
+      <c r="K14" s="40" t="n">
         <v>0.12962962962962962</v>
       </c>
-      <c r="L14" s="40">
-        <v>0.79629629629629628</v>
+      <c r="L14" s="40" t="n">
+        <v>0.7777777777777778</v>
       </c>
       <c r="M14" s="3">
         <f>100*L14/(SUM(J14:L14))</f>
@@ -11414,40 +11415,40 @@
       <c r="B18" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="40">
-        <v>1</v>
-      </c>
-      <c r="D18" s="40">
-        <v>0</v>
-      </c>
-      <c r="E18" s="40">
-        <v>0</v>
+      <c r="C18" s="40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D18" s="40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F18" s="3">
         <f>100*C18/SUM(C18:E18)</f>
         <v>100</v>
       </c>
-      <c r="G18" s="63">
-        <v>15.789473684210526</v>
+      <c r="G18" s="63" t="n">
+        <v>5.263157894736842</v>
       </c>
       <c r="I18" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="40">
-        <v>0.57777777777777772</v>
-      </c>
-      <c r="K18" s="40">
-        <v>0.4</v>
-      </c>
-      <c r="L18" s="40">
-        <v>2.2222222222222223E-2</v>
+      <c r="J18" s="40" t="n">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="K18" s="40" t="n">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="L18" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="M18" s="3">
         <f>100*J18/(SUM(J18:L18))</f>
         <v>57.777777777777771</v>
       </c>
-      <c r="N18" s="63">
-        <v>25.730994152046783</v>
+      <c r="N18" s="63" t="n">
+        <v>26.900584795321635</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -11455,14 +11456,14 @@
       <c r="B19" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="40">
-        <v>0</v>
-      </c>
-      <c r="D19" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E19" s="40">
-        <v>0.125</v>
+      <c r="C19" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F19" s="3">
         <f>100*D19/SUM(C19:E19)</f>
@@ -11472,14 +11473,14 @@
       <c r="I19" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="40">
-        <v>9.7222222222222224E-2</v>
-      </c>
-      <c r="K19" s="40">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="L19" s="40">
-        <v>0.1111111111111111</v>
+      <c r="J19" s="40" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="K19" s="40" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L19" s="40" t="n">
+        <v>0.125</v>
       </c>
       <c r="M19" s="3">
         <f>100*K19/(SUM(J19:L19))</f>
@@ -11492,14 +11493,14 @@
       <c r="B20" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="40">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D20" s="40">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E20" s="40">
-        <v>0.66666666666666663</v>
+      <c r="C20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="40" t="n">
+        <v>1.0</v>
       </c>
       <c r="F20" s="3">
         <f>100*E20/SUM(C20:E20)</f>
@@ -11509,14 +11510,14 @@
       <c r="I20" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="40">
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="K20" s="40">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="L20" s="40">
-        <v>0.81481481481481477</v>
+      <c r="J20" s="40" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="K20" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L20" s="40" t="n">
+        <v>0.7592592592592593</v>
       </c>
       <c r="M20" s="3">
         <f>100*L20/(SUM(J20:L20))</f>
@@ -11588,40 +11589,40 @@
       <c r="B24" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="40">
-        <v>1</v>
-      </c>
-      <c r="D24" s="40">
-        <v>0</v>
-      </c>
-      <c r="E24" s="40">
-        <v>0</v>
+      <c r="C24" s="40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E24" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F24" s="3">
         <f>100*C24/SUM(C24:E24)</f>
         <v>100</v>
       </c>
-      <c r="G24" s="63">
-        <v>5.2631578947368416</v>
+      <c r="G24" s="63" t="n">
+        <v>36.84210526315789</v>
       </c>
       <c r="I24" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="40">
-        <v>0.75555555555555554</v>
-      </c>
-      <c r="K24" s="40">
-        <v>0.24444444444444444</v>
-      </c>
-      <c r="L24" s="40">
-        <v>0</v>
+      <c r="J24" s="40" t="n">
+        <v>0.8444444444444444</v>
+      </c>
+      <c r="K24" s="40" t="n">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="L24" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="M24" s="3">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>75.555555555555557</v>
       </c>
-      <c r="N24" s="63">
-        <v>24.561403508771928</v>
+      <c r="N24" s="63" t="n">
+        <v>21.637426900584796</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -11629,14 +11630,14 @@
       <c r="B25" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="40">
-        <v>0</v>
-      </c>
-      <c r="D25" s="40">
-        <v>1</v>
-      </c>
-      <c r="E25" s="40">
-        <v>0</v>
+      <c r="C25" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E25" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F25" s="3">
         <f>100*D25/SUM(C25:E25)</f>
@@ -11646,13 +11647,13 @@
       <c r="I25" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="40">
-        <v>6.9444444444444448E-2</v>
-      </c>
-      <c r="K25" s="40">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="L25" s="40">
+      <c r="J25" s="40" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="K25" s="40" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L25" s="40" t="n">
         <v>0.1388888888888889</v>
       </c>
       <c r="M25" s="3">
@@ -11666,14 +11667,14 @@
       <c r="B26" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="40">
-        <v>0</v>
-      </c>
-      <c r="D26" s="40">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E26" s="40">
-        <v>0.83333333333333337</v>
+      <c r="C26" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="40" t="n">
+        <v>0.5</v>
       </c>
       <c r="F26" s="3">
         <f>100*E26/SUM(C26:E26)</f>
@@ -11683,14 +11684,14 @@
       <c r="I26" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="40">
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="K26" s="40">
-        <v>0.25925925925925924</v>
-      </c>
-      <c r="L26" s="40">
-        <v>0.70370370370370372</v>
+      <c r="J26" s="40" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+      <c r="K26" s="40" t="n">
+        <v>0.24074074074074073</v>
+      </c>
+      <c r="L26" s="40" t="n">
+        <v>0.7222222222222222</v>
       </c>
       <c r="M26" s="3">
         <f>100*L26/(SUM(J26:L26))</f>
@@ -11753,12 +11754,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -11861,41 +11862,41 @@
       <c r="B6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="40">
-        <v>1</v>
-      </c>
-      <c r="D6" s="40">
-        <v>0</v>
-      </c>
-      <c r="E6" s="40">
-        <v>0</v>
+      <c r="C6" s="40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="40" t="n">
+        <v>0.4</v>
       </c>
       <c r="F6" s="3">
         <f>100*C6/SUM(C6:E6)</f>
         <v>100</v>
       </c>
-      <c r="G6" s="67">
-        <v>26.315789473684209</v>
+      <c r="G6" s="67" t="n">
+        <v>42.10526315789473</v>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="40">
-        <v>0.71111111111111114</v>
-      </c>
-      <c r="K6" s="40">
-        <v>0.24444444444444444</v>
-      </c>
-      <c r="L6" s="40">
-        <v>4.4444444444444446E-2</v>
+      <c r="J6" s="40" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="K6" s="40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L6" s="40" t="n">
+        <v>0.022222222222222223</v>
       </c>
       <c r="M6" s="3">
         <f>100*J6/(SUM(J6:L6))</f>
         <v>71.111111111111114</v>
       </c>
-      <c r="N6" s="63">
-        <v>28.654970760233915</v>
+      <c r="N6" s="63" t="n">
+        <v>23.391812865497073</v>
       </c>
       <c r="O6" s="45"/>
     </row>
@@ -11904,13 +11905,13 @@
       <c r="B7" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="40">
-        <v>0.125</v>
-      </c>
-      <c r="D7" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="E7" s="40">
+      <c r="C7" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="40" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E7" s="40" t="n">
         <v>0.125</v>
       </c>
       <c r="F7" s="3">
@@ -11922,14 +11923,14 @@
       <c r="I7" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="40">
-        <v>0.15277777777777779</v>
-      </c>
-      <c r="K7" s="40">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="L7" s="40">
-        <v>0.1388888888888889</v>
+      <c r="J7" s="40" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K7" s="40" t="n">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L7" s="40" t="n">
+        <v>0.08333333333333333</v>
       </c>
       <c r="M7" s="3">
         <f>100*K7/(SUM(J7:L7))</f>
@@ -11943,13 +11944,13 @@
       <c r="B8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="40">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D8" s="40">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E8" s="40">
+      <c r="C8" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="40" t="n">
         <v>0.5</v>
       </c>
       <c r="F8" s="3">
@@ -11961,14 +11962,14 @@
       <c r="I8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="40">
-        <v>1.8518518518518517E-2</v>
-      </c>
-      <c r="K8" s="40">
+      <c r="J8" s="40" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+      <c r="K8" s="40" t="n">
         <v>0.25925925925925924</v>
       </c>
-      <c r="L8" s="40">
-        <v>0.72222222222222221</v>
+      <c r="L8" s="40" t="n">
+        <v>0.7037037037037037</v>
       </c>
       <c r="M8" s="3">
         <f>100*L8/(SUM(J8:L8))</f>
@@ -12040,40 +12041,40 @@
       <c r="B12" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="40">
-        <v>0.6</v>
-      </c>
-      <c r="D12" s="40">
-        <v>0.4</v>
-      </c>
-      <c r="E12" s="40">
-        <v>0</v>
+      <c r="C12" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F12" s="3">
         <f>100*C12/SUM(C12:E12)</f>
         <v>60</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="63" t="n">
         <v>10.526315789473683</v>
       </c>
       <c r="I12" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="40">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="K12" s="40">
-        <v>8.8888888888888892E-2</v>
-      </c>
-      <c r="L12" s="40">
-        <v>4.4444444444444446E-2</v>
+      <c r="J12" s="40" t="n">
+        <v>0.8222222222222222</v>
+      </c>
+      <c r="K12" s="40" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="L12" s="40" t="n">
+        <v>0.044444444444444446</v>
       </c>
       <c r="M12" s="3">
         <f>100*J12/(SUM(J12:L12))</f>
         <v>86.666666666666671</v>
       </c>
-      <c r="N12" s="63">
-        <v>15.204678362573098</v>
+      <c r="N12" s="63" t="n">
+        <v>16.95906432748538</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -12081,14 +12082,14 @@
       <c r="B13" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="40">
-        <v>0</v>
-      </c>
-      <c r="D13" s="40">
-        <v>1</v>
-      </c>
-      <c r="E13" s="40">
-        <v>0</v>
+      <c r="C13" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F13" s="3">
         <f>100*D13/SUM(C13:E13)</f>
@@ -12098,14 +12099,14 @@
       <c r="I13" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="40">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="K13" s="40">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="L13" s="40">
-        <v>4.1666666666666664E-2</v>
+      <c r="J13" s="40" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="K13" s="40" t="n">
+        <v>0.8472222222222222</v>
+      </c>
+      <c r="L13" s="40" t="n">
+        <v>0.06944444444444445</v>
       </c>
       <c r="M13" s="3">
         <f>100*K13/(SUM(J13:L13))</f>
@@ -12118,14 +12119,14 @@
       <c r="B14" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="40">
-        <v>0</v>
-      </c>
-      <c r="D14" s="40">
-        <v>0</v>
-      </c>
-      <c r="E14" s="40">
-        <v>1</v>
+      <c r="C14" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D14" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="40" t="n">
+        <v>0.6666666666666666</v>
       </c>
       <c r="F14" s="3">
         <f>100*E14/SUM(C14:E14)</f>
@@ -12135,14 +12136,14 @@
       <c r="I14" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="40">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="K14" s="40">
-        <v>0.14814814814814814</v>
-      </c>
-      <c r="L14" s="40">
-        <v>0.7407407407407407</v>
+      <c r="J14" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="40" t="n">
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="L14" s="40" t="n">
+        <v>0.8148148148148148</v>
       </c>
       <c r="M14" s="3">
         <f>100*L14/(SUM(J14:L14))</f>
@@ -12214,39 +12215,39 @@
       <c r="B18" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="40" t="n">
         <v>0.6</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="40" t="n">
         <v>0.4</v>
       </c>
-      <c r="E18" s="40">
-        <v>0</v>
+      <c r="E18" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F18" s="3">
         <f>100*C18/SUM(C18:E18)</f>
         <v>60</v>
       </c>
-      <c r="G18" s="63">
-        <v>26.315789473684209</v>
+      <c r="G18" s="63" t="n">
+        <v>26.31578947368421</v>
       </c>
       <c r="I18" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="40">
-        <v>0.62222222222222223</v>
-      </c>
-      <c r="K18" s="40">
-        <v>0.35555555555555557</v>
-      </c>
-      <c r="L18" s="40">
-        <v>2.2222222222222223E-2</v>
+      <c r="J18" s="40" t="n">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="K18" s="40" t="n">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="L18" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="M18" s="3">
         <f>100*J18/(SUM(J18:L18))</f>
         <v>62.222222222222221</v>
       </c>
-      <c r="N18" s="63">
+      <c r="N18" s="63" t="n">
         <v>23.976608187134502</v>
       </c>
     </row>
@@ -12255,14 +12256,14 @@
       <c r="B19" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="40">
-        <v>0.125</v>
-      </c>
-      <c r="D19" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="E19" s="40">
-        <v>0</v>
+      <c r="C19" s="40" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D19" s="40" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E19" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F19" s="3">
         <f>100*D19/SUM(C19:E19)</f>
@@ -12272,14 +12273,14 @@
       <c r="I19" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="40">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K19" s="40">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="L19" s="40">
-        <v>5.5555555555555552E-2</v>
+      <c r="J19" s="40" t="n">
+        <v>0.1527777777777778</v>
+      </c>
+      <c r="K19" s="40" t="n">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L19" s="40" t="n">
+        <v>0.041666666666666664</v>
       </c>
       <c r="M19" s="3">
         <f>100*K19/(SUM(J19:L19))</f>
@@ -12292,14 +12293,14 @@
       <c r="B20" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="40">
-        <v>0</v>
-      </c>
-      <c r="D20" s="40">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E20" s="40">
-        <v>0.66666666666666663</v>
+      <c r="C20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E20" s="40" t="n">
+        <v>0.8333333333333334</v>
       </c>
       <c r="F20" s="3">
         <f>100*E20/SUM(C20:E20)</f>
@@ -12309,14 +12310,14 @@
       <c r="I20" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="40">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="K20" s="40">
-        <v>9.2592592592592587E-2</v>
-      </c>
-      <c r="L20" s="40">
-        <v>0.85185185185185186</v>
+      <c r="J20" s="40" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="K20" s="40" t="n">
+        <v>0.12962962962962962</v>
+      </c>
+      <c r="L20" s="40" t="n">
+        <v>0.8148148148148148</v>
       </c>
       <c r="M20" s="3">
         <f>100*L20/(SUM(J20:L20))</f>
@@ -12388,40 +12389,40 @@
       <c r="B24" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="40">
-        <v>1</v>
-      </c>
-      <c r="D24" s="40">
-        <v>0</v>
-      </c>
-      <c r="E24" s="40">
-        <v>0</v>
+      <c r="C24" s="40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D24" s="40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="F24" s="3">
         <f>100*C24/SUM(C24:E24)</f>
         <v>100</v>
       </c>
-      <c r="G24" s="63">
-        <v>26.315789473684209</v>
+      <c r="G24" s="63" t="n">
+        <v>42.10526315789473</v>
       </c>
       <c r="I24" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="40">
-        <v>0.75555555555555554</v>
-      </c>
-      <c r="K24" s="40">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="L24" s="40">
-        <v>2.2222222222222223E-2</v>
+      <c r="J24" s="40" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="K24" s="40" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="L24" s="40" t="n">
+        <v>0.0</v>
       </c>
       <c r="M24" s="3">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>75.555555555555557</v>
       </c>
-      <c r="N24" s="63">
-        <v>31.578947368421051</v>
+      <c r="N24" s="63" t="n">
+        <v>25.730994152046783</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="17" x14ac:dyDescent="0.2">
@@ -12429,14 +12430,14 @@
       <c r="B25" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="40">
-        <v>0.125</v>
-      </c>
-      <c r="D25" s="40">
+      <c r="C25" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="40" t="n">
         <v>0.5</v>
       </c>
-      <c r="E25" s="40">
-        <v>0.375</v>
+      <c r="E25" s="40" t="n">
+        <v>0.5</v>
       </c>
       <c r="F25" s="3">
         <f>100*D25/SUM(C25:E25)</f>
@@ -12446,14 +12447,14 @@
       <c r="I25" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="40">
-        <v>9.7222222222222224E-2</v>
-      </c>
-      <c r="K25" s="40">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="L25" s="40">
-        <v>0.18055555555555555</v>
+      <c r="J25" s="40" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="K25" s="40" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L25" s="40" t="n">
+        <v>0.1527777777777778</v>
       </c>
       <c r="M25" s="3">
         <f>100*K25/(SUM(J25:L25))</f>
@@ -12466,14 +12467,14 @@
       <c r="B26" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="40">
-        <v>0</v>
-      </c>
-      <c r="D26" s="40">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E26" s="40">
-        <v>0.83333333333333337</v>
+      <c r="C26" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="40" t="n">
+        <v>0.5</v>
       </c>
       <c r="F26" s="3">
         <f>100*E26/SUM(C26:E26)</f>
@@ -12483,14 +12484,14 @@
       <c r="I26" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="40">
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="K26" s="40">
-        <v>0.35185185185185186</v>
-      </c>
-      <c r="L26" s="40">
-        <v>0.57407407407407407</v>
+      <c r="J26" s="40" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+      <c r="K26" s="40" t="n">
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="L26" s="40" t="n">
+        <v>0.7037037037037037</v>
       </c>
       <c r="M26" s="3">
         <f>100*L26/(SUM(J26:L26))</f>
